--- a/summary/Leetcode Group.xlsx
+++ b/summary/Leetcode Group.xlsx
@@ -2612,10 +2612,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2625,9 +2628,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2931,7 +2931,7 @@
   <dimension ref="A1:N1065"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2977,7 +2977,7 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="60" t="str">
+      <c r="A3" s="55" t="str">
         <f>HYPERLINK("https://github.com/groundzyy/lc/blob/master/Finished/NSum.md","N-Sum")</f>
         <v>N-Sum</v>
       </c>
@@ -3201,7 +3201,7 @@
       <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="58" t="str">
+      <c r="A13" s="59" t="str">
         <f>HYPERLINK("https://github.com/groundzyy/lc/blob/master/Finished/FixedLengthSlidingWindow.md","Fixed Length Sliding Window")</f>
         <v>Fixed Length Sliding Window</v>
       </c>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="54"/>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="34" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="12">
@@ -3382,7 +3382,7 @@
       <c r="N20" s="14"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="59" t="str">
+      <c r="A21" s="60" t="str">
         <f>HYPERLINK("https://github.com/groundzyy/lc/blob/master/Finished/VariantLengthSlidingWindow.md","variant length sliding window")</f>
         <v>variant length sliding window</v>
       </c>
@@ -3561,7 +3561,7 @@
       <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="60" t="str">
+      <c r="A29" s="55" t="str">
         <f>HYPERLINK("https://github.com/groundzyy/lc/blob/master/Finished/SubarraySum.md","subarray sum")</f>
         <v>subarray sum</v>
       </c>
@@ -3787,7 +3787,7 @@
       <c r="N38" s="14"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="59" t="str">
+      <c r="A39" s="60" t="str">
         <f>HYPERLINK("https://github.com/groundzyy/lc/blob/master/Finished/WaterCatching.md","Water Catch")</f>
         <v>Water Catch</v>
       </c>
@@ -3900,7 +3900,7 @@
       <c r="N43" s="14"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="60" t="str">
+      <c r="A44" s="55" t="str">
         <f>HYPERLINK("https://github.com/groundzyy/lc/blob/master/Finished/Circle.md","Circle")</f>
         <v>Circle</v>
       </c>
@@ -4097,7 +4097,7 @@
       <c r="N52" s="14"/>
     </row>
     <row r="53" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="57" t="s">
         <v>72</v>
       </c>
       <c r="B53" s="2"/>
@@ -4548,7 +4548,7 @@
       <c r="N73" s="14"/>
     </row>
     <row r="74" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A74" s="57" t="s">
+      <c r="A74" s="58" t="s">
         <v>105</v>
       </c>
       <c r="B74" s="19" t="s">
@@ -17071,17 +17071,6 @@
     <mergeCell ref="A482:A495"/>
     <mergeCell ref="A505:A512"/>
     <mergeCell ref="A513:A517"/>
-    <mergeCell ref="A379:F379"/>
-    <mergeCell ref="A393:F393"/>
-    <mergeCell ref="A394:F394"/>
-    <mergeCell ref="A395:F395"/>
-    <mergeCell ref="A190:A196"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="A231:A233"/>
-    <mergeCell ref="A234:A236"/>
-    <mergeCell ref="A237:A241"/>
-    <mergeCell ref="A259:A270"/>
-    <mergeCell ref="A272:A281"/>
     <mergeCell ref="A283:A296"/>
     <mergeCell ref="A310:A313"/>
     <mergeCell ref="A314:A317"/>
@@ -17118,6 +17107,17 @@
     <mergeCell ref="A446:A460"/>
     <mergeCell ref="A461:A470"/>
     <mergeCell ref="A531:A532"/>
+    <mergeCell ref="A379:F379"/>
+    <mergeCell ref="A393:F393"/>
+    <mergeCell ref="A394:F394"/>
+    <mergeCell ref="A395:F395"/>
+    <mergeCell ref="A190:A196"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="A231:A233"/>
+    <mergeCell ref="A234:A236"/>
+    <mergeCell ref="A237:A241"/>
+    <mergeCell ref="A259:A270"/>
+    <mergeCell ref="A272:A281"/>
     <mergeCell ref="A586:A588"/>
     <mergeCell ref="A405:A406"/>
     <mergeCell ref="A407:A408"/>
